--- a/war_timeseries_dataset.xlsx
+++ b/war_timeseries_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-IE\@2025_Spring\07-MIM_PA\SESSIONS 5 &amp; 6 - Optimization Workshop\UKRAINE_WAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-IE\@2025_Spring\07-MIM_PA\SESSIONS 5 &amp; 6 - Optimization Workshop\Optimizing Military Investment for Maximum Impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FDC1C7-38DE-4D75-9BDB-68D01938F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C77381-8582-4689-B55B-EC1932896509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>https://www.pravda.com.ua/eng/</t>
+  </si>
+  <si>
+    <t>Total Budget Constraint</t>
+  </si>
+  <si>
+    <t>$1 Billion USD</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,6 +223,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14485,10 +14497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B27757-2987-4124-803E-1B378B96031C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14585,28 +14597,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" location=":~:text=Countries%20delivering%20military%20aid%20to%20Ukraine&amp;text=By%20March%202024%2C%20mostly%20Western,military%20aid%20from%20individual%20countries." xr:uid="{9B509004-A4F5-48DF-B5EC-35E4AC277879}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{A0AF8A0C-BBBB-4A33-9261-29F446F3CE0E}"/>
+    <hyperlink ref="A16" r:id="rId1" location=":~:text=Countries%20delivering%20military%20aid%20to%20Ukraine&amp;text=By%20March%202024%2C%20mostly%20Western,military%20aid%20from%20individual%20countries." xr:uid="{9B509004-A4F5-48DF-B5EC-35E4AC277879}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{A0AF8A0C-BBBB-4A33-9261-29F446F3CE0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
